--- a/Matuchet/Инвентаризация 2024/База оборудования 2024.xlsx
+++ b/Matuchet/Инвентаризация 2024/База оборудования 2024.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="381">
   <si>
     <t>Счет</t>
   </si>
@@ -2300,8 +2300,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5740740740741" defaultRowHeight="13.8"/>
@@ -2631,7 +2631,9 @@
       <c r="D10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="6" t="s">
         <v>13</v>
       </c>
@@ -2663,7 +2665,9 @@
       <c r="D11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2750,7 +2754,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="14" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -4435,7 +4439,9 @@
       <c r="D66" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F66" s="3" t="s">
         <v>13</v>
       </c>
@@ -4519,7 +4525,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="69" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="69" ht="15" customHeight="1" spans="1:11">
       <c r="A69" s="1"/>
       <c r="B69" s="22"/>
       <c r="C69" s="10" t="s">
@@ -4546,7 +4552,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="70" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="70" ht="15" customHeight="1" spans="1:11">
       <c r="A70" s="1"/>
       <c r="B70" s="22"/>
       <c r="C70" s="10" t="s">
@@ -4573,7 +4579,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="71" ht="15" customHeight="1" spans="1:11">
       <c r="A71" s="1" t="s">
         <v>12</v>
       </c>
@@ -4604,7 +4610,7 @@
       </c>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="72" ht="15" customHeight="1" spans="1:11">
       <c r="A72" s="1" t="s">
         <v>12</v>
       </c>
@@ -4635,7 +4641,7 @@
       </c>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="73" ht="15" customHeight="1" spans="1:11">
       <c r="A73" s="1" t="s">
         <v>12</v>
       </c>
@@ -4731,7 +4737,7 @@
       </c>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="76" ht="15" customHeight="1" spans="1:11">
       <c r="A76" s="1">
         <v>21</v>
       </c>
@@ -4775,7 +4781,9 @@
       <c r="D77" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E77" s="6"/>
+      <c r="E77" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F77" s="6" t="s">
         <v>13</v>
       </c>
@@ -4806,7 +4814,9 @@
       <c r="D78" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E78" s="6"/>
+      <c r="E78" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F78" s="6" t="s">
         <v>13</v>
       </c>
@@ -4839,7 +4849,9 @@
       <c r="D79" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E79" s="6"/>
+      <c r="E79" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F79" s="6" t="s">
         <v>13</v>
       </c>
@@ -4870,7 +4882,9 @@
       <c r="D80" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E80" s="6"/>
+      <c r="E80" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F80" s="6" t="s">
         <v>13</v>
       </c>
@@ -4903,7 +4917,9 @@
       <c r="D81" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E81" s="6"/>
+      <c r="E81" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F81" s="6" t="s">
         <v>13</v>
       </c>
@@ -4934,7 +4950,9 @@
       <c r="D82" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E82" s="6"/>
+      <c r="E82" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F82" s="6" t="s">
         <v>13</v>
       </c>
@@ -4965,7 +4983,9 @@
       <c r="D83" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E83" s="6"/>
+      <c r="E83" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F83" s="6" t="s">
         <v>13</v>
       </c>
@@ -4998,7 +5018,9 @@
       <c r="D84" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E84" s="6"/>
+      <c r="E84" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F84" s="6" t="s">
         <v>13</v>
       </c>
@@ -5031,7 +5053,9 @@
       <c r="D85" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E85" s="6"/>
+      <c r="E85" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F85" s="6" t="s">
         <v>13</v>
       </c>
@@ -5064,7 +5088,9 @@
       <c r="D86" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E86" s="6"/>
+      <c r="E86" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F86" s="6" t="s">
         <v>13</v>
       </c>
@@ -5097,7 +5123,9 @@
       <c r="D87" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E87" s="6"/>
+      <c r="E87" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F87" s="6" t="s">
         <v>13</v>
       </c>
@@ -5130,7 +5158,9 @@
       <c r="D88" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E88" s="6"/>
+      <c r="E88" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F88" s="6" t="s">
         <v>13</v>
       </c>
@@ -5163,7 +5193,9 @@
       <c r="D89" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E89" s="6"/>
+      <c r="E89" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F89" s="6" t="s">
         <v>13</v>
       </c>
@@ -5194,7 +5226,9 @@
       <c r="D90" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E90" s="6"/>
+      <c r="E90" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F90" s="6" t="s">
         <v>13</v>
       </c>
@@ -5225,7 +5259,9 @@
       <c r="D91" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E91" s="6"/>
+      <c r="E91" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F91" s="6" t="s">
         <v>13</v>
       </c>
@@ -5256,7 +5292,9 @@
       <c r="D92" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E92" s="6"/>
+      <c r="E92" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F92" s="6" t="s">
         <v>13</v>
       </c>
@@ -5287,7 +5325,9 @@
       <c r="D93" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="E93" s="6"/>
+      <c r="E93" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F93" s="6" t="s">
         <v>13</v>
       </c>
@@ -5352,7 +5392,9 @@
       <c r="D95" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E95" s="6"/>
+      <c r="E95" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F95" s="6" t="s">
         <v>13</v>
       </c>
@@ -5383,7 +5425,9 @@
       <c r="D96" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E96" s="6"/>
+      <c r="E96" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F96" s="6" t="s">
         <v>13</v>
       </c>
@@ -5414,7 +5458,9 @@
       <c r="D97" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E97" s="6"/>
+      <c r="E97" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F97" s="6" t="s">
         <v>13</v>
       </c>
@@ -5445,7 +5491,9 @@
       <c r="D98" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E98" s="6"/>
+      <c r="E98" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F98" s="6" t="s">
         <v>13</v>
       </c>
@@ -5476,7 +5524,9 @@
       <c r="D99" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E99" s="6"/>
+      <c r="E99" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F99" s="6" t="s">
         <v>13</v>
       </c>
@@ -5494,7 +5544,7 @@
       </c>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="100" ht="15" customHeight="1" spans="1:11">
       <c r="A100" s="1" t="s">
         <v>12</v>
       </c>
@@ -5525,7 +5575,7 @@
       </c>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="101" ht="15" customHeight="1" spans="1:11">
       <c r="A101" s="1" t="s">
         <v>12</v>
       </c>
@@ -5569,7 +5619,9 @@
       <c r="D102" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E102" s="6"/>
+      <c r="E102" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F102" s="6" t="s">
         <v>13</v>
       </c>
@@ -5639,7 +5691,9 @@
       <c r="D104" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="E104" s="6"/>
+      <c r="E104" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F104" s="6" t="s">
         <v>13</v>
       </c>
@@ -5660,7 +5714,7 @@
       </c>
       <c r="L104" s="8"/>
     </row>
-    <row r="105" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:12">
+    <row r="105" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A105" s="1" t="s">
         <v>12</v>
       </c>
@@ -5690,7 +5744,7 @@
       </c>
       <c r="L105" s="8"/>
     </row>
-    <row r="106" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:12">
+    <row r="106" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A106" s="1" t="s">
         <v>12</v>
       </c>
@@ -5720,7 +5774,7 @@
       </c>
       <c r="L106" s="8"/>
     </row>
-    <row r="107" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:12">
+    <row r="107" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A107" s="1" t="s">
         <v>12</v>
       </c>
@@ -5750,7 +5804,7 @@
       </c>
       <c r="L107" s="8"/>
     </row>
-    <row r="108" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:12">
+    <row r="108" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A108" s="1" t="s">
         <v>12</v>
       </c>
@@ -5780,7 +5834,7 @@
       </c>
       <c r="L108" s="8"/>
     </row>
-    <row r="109" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:12">
+    <row r="109" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A109" s="1" t="s">
         <v>12</v>
       </c>
@@ -5810,7 +5864,7 @@
       </c>
       <c r="L109" s="8"/>
     </row>
-    <row r="110" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:12">
+    <row r="110" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A110" s="1" t="s">
         <v>12</v>
       </c>
@@ -5840,7 +5894,7 @@
       </c>
       <c r="L110" s="8"/>
     </row>
-    <row r="111" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:12">
+    <row r="111" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A111" s="1" t="s">
         <v>12</v>
       </c>
@@ -5870,7 +5924,7 @@
       </c>
       <c r="L111" s="8"/>
     </row>
-    <row r="112" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:12">
+    <row r="112" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A112" s="1" t="s">
         <v>12</v>
       </c>
@@ -5900,7 +5954,7 @@
       </c>
       <c r="L112" s="8"/>
     </row>
-    <row r="113" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:12">
+    <row r="113" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A113" s="1" t="s">
         <v>12</v>
       </c>
@@ -5930,7 +5984,7 @@
       </c>
       <c r="L113" s="8"/>
     </row>
-    <row r="114" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:12">
+    <row r="114" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
       <c r="A114" s="1" t="s">
         <v>12</v>
       </c>
@@ -5971,7 +6025,9 @@
       <c r="D115" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="E115" s="6"/>
+      <c r="E115" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F115" s="6" t="s">
         <v>13</v>
       </c>
@@ -6001,7 +6057,9 @@
       <c r="D116" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E116" s="6"/>
+      <c r="E116" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F116" s="6" t="s">
         <v>13</v>
       </c>
@@ -6031,7 +6089,9 @@
       <c r="D117" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="E117" s="6"/>
+      <c r="E117" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F117" s="6" t="s">
         <v>13</v>
       </c>
@@ -6061,7 +6121,9 @@
       <c r="D118" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="E118" s="6"/>
+      <c r="E118" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F118" s="6" t="s">
         <v>13</v>
       </c>
@@ -6173,7 +6235,7 @@
       </c>
       <c r="K121" s="4"/>
     </row>
-    <row r="122" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="122" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
       <c r="A122" s="4" t="s">
         <v>12</v>
       </c>
@@ -6202,7 +6264,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="123" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="123" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
       <c r="A123" s="4" t="s">
         <v>12</v>
       </c>
@@ -6225,7 +6287,7 @@
       <c r="H123" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I123" s="4" t="s">
+      <c r="I123" s="23" t="s">
         <v>301</v>
       </c>
       <c r="J123" s="12" t="s">
@@ -6233,7 +6295,7 @@
       </c>
       <c r="K123" s="4"/>
     </row>
-    <row r="124" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="124" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
       <c r="A124" s="4" t="s">
         <v>12</v>
       </c>
@@ -6256,7 +6318,7 @@
       <c r="H124" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I124" s="4">
+      <c r="I124" s="23">
         <v>104</v>
       </c>
       <c r="J124" s="4" t="s">
@@ -6264,7 +6326,7 @@
       </c>
       <c r="K124" s="1"/>
     </row>
-    <row r="125" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="125" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
       <c r="A125" s="4" t="s">
         <v>12</v>
       </c>
@@ -6287,7 +6349,7 @@
       <c r="H125" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I125" s="4" t="s">
+      <c r="I125" s="23" t="s">
         <v>301</v>
       </c>
       <c r="J125" s="12" t="s">
@@ -6295,7 +6357,7 @@
       </c>
       <c r="K125" s="4"/>
     </row>
-    <row r="126" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="126" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
       <c r="A126" s="4" t="s">
         <v>12</v>
       </c>
@@ -6318,7 +6380,7 @@
       <c r="H126" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I126" s="4" t="s">
+      <c r="I126" s="23" t="s">
         <v>301</v>
       </c>
       <c r="J126" s="12" t="s">
@@ -6392,7 +6454,7 @@
       </c>
       <c r="K128" s="4"/>
     </row>
-    <row r="129" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="129" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
       <c r="A129" s="4" t="s">
         <v>12</v>
       </c>
@@ -6415,7 +6477,7 @@
       <c r="H129" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I129" s="4">
+      <c r="I129" s="23">
         <v>104</v>
       </c>
       <c r="J129" s="4" t="s">
@@ -6423,7 +6485,7 @@
       </c>
       <c r="K129" s="4"/>
     </row>
-    <row r="130" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="130" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
       <c r="A130" s="4" t="s">
         <v>12</v>
       </c>
@@ -6446,7 +6508,7 @@
       <c r="H130" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I130" s="4">
+      <c r="I130" s="23">
         <v>104</v>
       </c>
       <c r="J130" s="4" t="s">
@@ -6454,7 +6516,7 @@
       </c>
       <c r="K130" s="4"/>
     </row>
-    <row r="131" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="131" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
       <c r="A131" s="4" t="s">
         <v>12</v>
       </c>
@@ -6477,7 +6539,7 @@
       <c r="H131" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I131" s="4">
+      <c r="I131" s="23">
         <v>104</v>
       </c>
       <c r="J131" s="4" t="s">
@@ -6520,7 +6582,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="133" s="19" customFormat="1" ht="14.4" hidden="1" spans="1:11">
+    <row r="133" s="19" customFormat="1" ht="14.4" spans="1:11">
       <c r="A133" s="4" t="s">
         <v>12</v>
       </c>
@@ -6543,7 +6605,7 @@
       <c r="H133" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I133" s="4" t="s">
+      <c r="I133" s="23" t="s">
         <v>301</v>
       </c>
       <c r="J133" s="12" t="s">
@@ -7095,7 +7157,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:11">
+    <row r="152" spans="1:11">
       <c r="A152" s="8">
         <v>21</v>
       </c>
@@ -7121,7 +7183,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:11">
+    <row r="153" spans="1:11">
       <c r="A153" s="8">
         <v>21</v>
       </c>
@@ -7271,9 +7333,12 @@
     </filterColumn>
     <filterColumn colId="9">
       <filters>
+        <filter val="ЭФА"/>
+        <filter val="Чепортузова"/>
         <filter val="ЛЭМБ"/>
         <filter val="Ничье"/>
         <filter val="Химики"/>
+        <filter val="Пичугин"/>
       </filters>
     </filterColumn>
     <extLst/>

--- a/Matuchet/Инвентаризация 2024/База оборудования 2024.xlsx
+++ b/Matuchet/Инвентаризация 2024/База оборудования 2024.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="383">
   <si>
     <t>Счет</t>
   </si>
@@ -455,7 +455,7 @@
     <t>10134-7100</t>
   </si>
   <si>
-    <t>Кандалакша</t>
+    <t>112, Кандалакша</t>
   </si>
   <si>
     <t>44</t>
@@ -1123,6 +1123,9 @@
     <t>м1-98266461</t>
   </si>
   <si>
+    <t>112, 19</t>
+  </si>
+  <si>
     <t>рация</t>
   </si>
   <si>
@@ -1145,6 +1148,9 @@
   </si>
   <si>
     <t>м1-98267909</t>
+  </si>
+  <si>
+    <t>8, 19</t>
   </si>
   <si>
     <t>Лузганова 1; Полоскин 4</t>
@@ -2300,8 +2306,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5740740740741" defaultRowHeight="13.8"/>
@@ -2309,8 +2315,9 @@
     <col min="1" max="1" width="7.85185185185185" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.42592592592593" style="8" customWidth="1"/>
     <col min="3" max="3" width="41.4259259259259" style="8" customWidth="1"/>
-    <col min="4" max="5" width="25.5740740740741" style="8"/>
-    <col min="6" max="6" width="19.8518518518519" style="8" customWidth="1"/>
+    <col min="4" max="4" width="25.5740740740741" style="8"/>
+    <col min="5" max="5" width="25.5740740740741" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8518518518519" style="8" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13.5740740740741" style="9" customWidth="1"/>
     <col min="8" max="8" width="15.8518518518519" style="8" customWidth="1"/>
     <col min="9" max="9" width="10.287037037037" style="8" customWidth="1"/>
@@ -2403,7 +2410,9 @@
       <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
@@ -2414,7 +2423,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>17</v>
@@ -2548,7 +2557,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>17</v>
@@ -2568,7 +2577,9 @@
       <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
@@ -2600,7 +2611,9 @@
       <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
@@ -2745,7 +2758,7 @@
         <v>16</v>
       </c>
       <c r="I13" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>17</v>
@@ -2767,7 +2780,9 @@
       <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2798,7 +2813,9 @@
       <c r="D15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2830,7 +2847,9 @@
       <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F16" s="3" t="s">
         <v>13</v>
       </c>
@@ -2940,7 +2959,7 @@
         <v>16</v>
       </c>
       <c r="I19" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>17</v>
@@ -2973,7 +2992,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>17</v>
@@ -3501,7 +3520,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>17</v>
@@ -3534,7 +3553,7 @@
         <v>16</v>
       </c>
       <c r="I37" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>17</v>
@@ -3567,7 +3586,7 @@
         <v>16</v>
       </c>
       <c r="I38" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>17</v>
@@ -3600,7 +3619,7 @@
         <v>16</v>
       </c>
       <c r="I39" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>17</v>
@@ -3633,7 +3652,7 @@
         <v>16</v>
       </c>
       <c r="I40" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>17</v>
@@ -3666,7 +3685,7 @@
         <v>16</v>
       </c>
       <c r="I41" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>17</v>
@@ -3765,7 +3784,7 @@
         <v>16</v>
       </c>
       <c r="I44" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>17</v>
@@ -3785,7 +3804,9 @@
       <c r="D45" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F45" s="3" t="s">
         <v>13</v>
       </c>
@@ -3795,7 +3816,7 @@
       <c r="H45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="23">
         <v>106</v>
       </c>
       <c r="J45" s="4" t="s">
@@ -3829,7 +3850,7 @@
         <v>16</v>
       </c>
       <c r="I46" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>17</v>
@@ -3849,7 +3870,9 @@
       <c r="D47" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F47" s="3" t="s">
         <v>13</v>
       </c>
@@ -4505,7 +4528,9 @@
       <c r="D68" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E68" s="6"/>
+      <c r="E68" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F68" s="6" t="s">
         <v>13</v>
       </c>
@@ -4534,7 +4559,9 @@
       <c r="D69" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E69" s="6"/>
+      <c r="E69" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F69" s="6" t="s">
         <v>13</v>
       </c>
@@ -4561,7 +4588,9 @@
       <c r="D70" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E70" s="6"/>
+      <c r="E70" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F70" s="6" t="s">
         <v>13</v>
       </c>
@@ -4592,7 +4621,9 @@
       <c r="D71" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E71" s="6"/>
+      <c r="E71" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F71" s="6" t="s">
         <v>13</v>
       </c>
@@ -4623,7 +4654,9 @@
       <c r="D72" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E72" s="6"/>
+      <c r="E72" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F72" s="6" t="s">
         <v>13</v>
       </c>
@@ -4654,7 +4687,9 @@
       <c r="D73" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E73" s="6"/>
+      <c r="E73" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F73" s="6" t="s">
         <v>13</v>
       </c>
@@ -4719,7 +4754,9 @@
       <c r="D75" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E75" s="6"/>
+      <c r="E75" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F75" s="6" t="s">
         <v>13</v>
       </c>
@@ -4750,7 +4787,9 @@
       <c r="D76" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E76" s="6"/>
+      <c r="E76" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F76" s="6" t="s">
         <v>13</v>
       </c>
@@ -5557,7 +5596,9 @@
       <c r="D100" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E100" s="6"/>
+      <c r="E100" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F100" s="6" t="s">
         <v>13</v>
       </c>
@@ -5588,7 +5629,9 @@
       <c r="D101" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="E101" s="6"/>
+      <c r="E101" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F101" s="6" t="s">
         <v>13</v>
       </c>
@@ -5725,7 +5768,9 @@
       <c r="D105" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E105" s="6"/>
+      <c r="E105" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F105" s="6" t="s">
         <v>13</v>
       </c>
@@ -5755,7 +5800,9 @@
       <c r="D106" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E106" s="6"/>
+      <c r="E106" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F106" s="6" t="s">
         <v>13</v>
       </c>
@@ -5785,7 +5832,9 @@
       <c r="D107" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E107" s="6"/>
+      <c r="E107" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F107" s="6" t="s">
         <v>13</v>
       </c>
@@ -5815,7 +5864,9 @@
       <c r="D108" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E108" s="6"/>
+      <c r="E108" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F108" s="6" t="s">
         <v>13</v>
       </c>
@@ -5845,7 +5896,9 @@
       <c r="D109" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="E109" s="6"/>
+      <c r="E109" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F109" s="6" t="s">
         <v>13</v>
       </c>
@@ -5875,7 +5928,9 @@
       <c r="D110" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E110" s="6"/>
+      <c r="E110" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F110" s="6" t="s">
         <v>13</v>
       </c>
@@ -5905,7 +5960,9 @@
       <c r="D111" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="E111" s="6"/>
+      <c r="E111" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F111" s="6" t="s">
         <v>13</v>
       </c>
@@ -5935,7 +5992,9 @@
       <c r="D112" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="E112" s="6"/>
+      <c r="E112" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F112" s="6" t="s">
         <v>13</v>
       </c>
@@ -5965,7 +6024,9 @@
       <c r="D113" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E113" s="6"/>
+      <c r="E113" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F113" s="6" t="s">
         <v>13</v>
       </c>
@@ -5995,7 +6056,9 @@
       <c r="D114" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="E114" s="6"/>
+      <c r="E114" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F114" s="6" t="s">
         <v>13</v>
       </c>
@@ -6153,7 +6216,9 @@
       <c r="D119" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E119" s="6"/>
+      <c r="E119" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F119" s="6" t="s">
         <v>13</v>
       </c>
@@ -6183,7 +6248,9 @@
       <c r="D120" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E120" s="6"/>
+      <c r="E120" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F120" s="6" t="s">
         <v>13</v>
       </c>
@@ -6246,7 +6313,9 @@
       <c r="D122" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="E122" s="3"/>
+      <c r="E122" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F122" s="3" t="s">
         <v>13</v>
       </c>
@@ -6277,7 +6346,9 @@
       <c r="D123" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E123" s="3"/>
+      <c r="E123" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F123" s="3" t="s">
         <v>13</v>
       </c>
@@ -6308,7 +6379,9 @@
       <c r="D124" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F124" s="3" t="s">
         <v>13</v>
       </c>
@@ -6339,7 +6412,9 @@
       <c r="D125" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F125" s="3" t="s">
         <v>13</v>
       </c>
@@ -6370,7 +6445,9 @@
       <c r="D126" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="E126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F126" s="3" t="s">
         <v>13</v>
       </c>
@@ -6417,7 +6494,7 @@
         <v>120</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="K127" s="4"/>
     </row>
@@ -6450,7 +6527,7 @@
         <v>120</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="K128" s="4"/>
     </row>
@@ -6467,7 +6544,9 @@
       <c r="D129" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E129" s="3"/>
+      <c r="E129" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F129" s="3" t="s">
         <v>13</v>
       </c>
@@ -6498,7 +6577,9 @@
       <c r="D130" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="E130" s="3"/>
+      <c r="E130" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F130" s="3" t="s">
         <v>13</v>
       </c>
@@ -6529,7 +6610,9 @@
       <c r="D131" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="E131" s="3"/>
+      <c r="E131" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F131" s="3" t="s">
         <v>13</v>
       </c>
@@ -6595,7 +6678,9 @@
       <c r="D133" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E133" s="3"/>
+      <c r="E133" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F133" s="3" t="s">
         <v>13</v>
       </c>
@@ -6639,7 +6724,7 @@
         <v>16</v>
       </c>
       <c r="I134" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J134" s="4" t="s">
         <v>17</v>
@@ -6692,7 +6777,9 @@
       <c r="D136" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="E136" s="6"/>
+      <c r="E136" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F136" s="6" t="s">
         <v>13</v>
       </c>
@@ -6726,7 +6813,9 @@
       <c r="D137" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="E137" s="3"/>
+      <c r="E137" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F137" s="3" t="s">
         <v>13</v>
       </c>
@@ -6757,7 +6846,9 @@
       <c r="D138" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E138" s="6"/>
+      <c r="E138" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F138" s="6" t="s">
         <v>13</v>
       </c>
@@ -6789,7 +6880,9 @@
       <c r="D139" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E139" s="6"/>
+      <c r="E139" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F139" s="6" t="s">
         <v>13</v>
       </c>
@@ -6822,7 +6915,9 @@
       <c r="D140" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="E140" s="6"/>
+      <c r="E140" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F140" s="6" t="s">
         <v>13</v>
       </c>
@@ -6853,7 +6948,9 @@
       <c r="D141" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E141" s="3"/>
+      <c r="E141" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F141" s="3" t="s">
         <v>13</v>
       </c>
@@ -6864,7 +6961,7 @@
         <v>16</v>
       </c>
       <c r="I141" s="4">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J141" s="4" t="s">
         <v>17</v>
@@ -6885,7 +6982,9 @@
       <c r="D142" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="E142" s="3"/>
+      <c r="E142" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F142" s="3" t="s">
         <v>13</v>
       </c>
@@ -6895,8 +6994,8 @@
       <c r="H142" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I142" s="4">
-        <v>19</v>
+      <c r="I142" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="J142" s="4" t="s">
         <v>17</v>
@@ -6912,12 +7011,14 @@
         <v>54</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E143" s="3"/>
+        <v>350</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F143" s="3" t="s">
         <v>13</v>
       </c>
@@ -6928,7 +7029,7 @@
         <v>16</v>
       </c>
       <c r="I143" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J143" s="4" t="s">
         <v>17</v>
@@ -6948,7 +7049,9 @@
       <c r="D144" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E144" s="6"/>
+      <c r="E144" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F144" s="6" t="s">
         <v>13</v>
       </c>
@@ -6975,12 +7078,14 @@
         <v>60</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="E145" s="6"/>
+        <v>352</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F145" s="6" t="s">
         <v>13</v>
       </c>
@@ -7007,10 +7112,10 @@
         <v>63</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>13</v>
@@ -7025,7 +7130,7 @@
         <v>16</v>
       </c>
       <c r="I146" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J146" s="4" t="s">
         <v>17</v>
@@ -7038,10 +7143,13 @@
         <v>21</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
+      </c>
+      <c r="E147" s="8">
+        <v>1</v>
       </c>
       <c r="F147" s="8">
         <v>1</v>
@@ -7049,11 +7157,14 @@
       <c r="G147" s="9">
         <v>5</v>
       </c>
+      <c r="I147" s="8" t="s">
+        <v>357</v>
+      </c>
       <c r="J147" s="8" t="s">
         <v>17</v>
       </c>
       <c r="K147" s="8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -7066,6 +7177,9 @@
       <c r="D148" s="8" t="s">
         <v>202</v>
       </c>
+      <c r="E148" s="8">
+        <v>1</v>
+      </c>
       <c r="F148" s="8">
         <v>1</v>
       </c>
@@ -7073,13 +7187,13 @@
         <v>1</v>
       </c>
       <c r="I148" s="8">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="J148" s="8" t="s">
         <v>17</v>
       </c>
       <c r="K148" s="8" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -7087,10 +7201,13 @@
         <v>21</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="E149" s="8">
+        <v>1</v>
       </c>
       <c r="F149" s="8">
         <v>1</v>
@@ -7099,13 +7216,13 @@
         <v>35</v>
       </c>
       <c r="I149" s="8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J149" s="8" t="s">
         <v>17</v>
       </c>
       <c r="K149" s="8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -7113,11 +7230,14 @@
         <v>21</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D150" s="8">
         <v>81706</v>
       </c>
+      <c r="E150" s="8">
+        <v>1</v>
+      </c>
       <c r="F150" s="8">
         <v>1</v>
       </c>
@@ -7131,7 +7251,7 @@
         <v>17</v>
       </c>
       <c r="K150" s="8" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -7139,10 +7259,13 @@
         <v>21</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>364</v>
+        <v>366</v>
+      </c>
+      <c r="E151" s="8">
+        <v>1</v>
       </c>
       <c r="F151" s="8">
         <v>1</v>
@@ -7150,11 +7273,14 @@
       <c r="G151" s="9">
         <v>1</v>
       </c>
+      <c r="I151" s="8">
+        <v>8</v>
+      </c>
       <c r="J151" s="8" t="s">
         <v>17</v>
       </c>
       <c r="K151" s="8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -7165,7 +7291,10 @@
         <v>271</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
+      </c>
+      <c r="E152" s="8">
+        <v>1</v>
       </c>
       <c r="F152" s="8">
         <v>1</v>
@@ -7180,7 +7309,7 @@
         <v>53</v>
       </c>
       <c r="K152" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -7188,10 +7317,13 @@
         <v>21</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D153" s="8">
         <v>8898</v>
+      </c>
+      <c r="E153" s="8">
+        <v>1</v>
       </c>
       <c r="F153" s="8">
         <v>1</v>
@@ -7214,10 +7346,13 @@
         <v>21</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>370</v>
+        <v>372</v>
+      </c>
+      <c r="E154" s="8">
+        <v>1</v>
       </c>
       <c r="F154" s="8">
         <v>1</v>
@@ -7225,11 +7360,14 @@
       <c r="G154" s="9">
         <v>3</v>
       </c>
+      <c r="I154" s="8">
+        <v>8</v>
+      </c>
       <c r="J154" s="8" t="s">
         <v>17</v>
       </c>
       <c r="K154" s="8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -7237,22 +7375,28 @@
         <v>21</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D155" s="8">
         <v>81681</v>
       </c>
+      <c r="E155" s="8">
+        <v>1</v>
+      </c>
       <c r="F155" s="8">
         <v>1</v>
       </c>
       <c r="G155" s="9">
         <v>1</v>
       </c>
+      <c r="I155" s="8">
+        <v>8</v>
+      </c>
       <c r="J155" s="8" t="s">
         <v>17</v>
       </c>
       <c r="K155" s="8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -7260,15 +7404,21 @@
         <v>21</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>375</v>
+        <v>377</v>
+      </c>
+      <c r="E156" s="8">
+        <v>1</v>
       </c>
       <c r="F156" s="8">
         <v>1</v>
       </c>
       <c r="G156" s="9">
+        <v>8</v>
+      </c>
+      <c r="I156" s="8">
         <v>8</v>
       </c>
       <c r="J156" s="8" t="s">
@@ -7288,6 +7438,9 @@
       <c r="D157" s="8" t="s">
         <v>200</v>
       </c>
+      <c r="E157" s="8">
+        <v>1</v>
+      </c>
       <c r="F157" s="8">
         <v>1</v>
       </c>
@@ -7306,22 +7459,28 @@
         <v>21</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D158" s="8">
         <v>81718</v>
       </c>
+      <c r="E158" s="8">
+        <v>1</v>
+      </c>
       <c r="F158" s="8">
         <v>1</v>
       </c>
       <c r="G158" s="9">
         <v>3</v>
       </c>
+      <c r="I158" s="8">
+        <v>8</v>
+      </c>
       <c r="J158" s="8" t="s">
         <v>17</v>
       </c>
       <c r="K158" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -7618,10 +7777,10 @@
         <v>54</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>16</v>
@@ -7668,10 +7827,10 @@
         <v>60</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>16</v>
@@ -7693,10 +7852,10 @@
         <v>63</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>16</v>
@@ -7982,7 +8141,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -8003,7 +8162,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -8024,7 +8183,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -8045,7 +8204,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>185</v>
@@ -8068,7 +8227,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>185</v>
@@ -8091,7 +8250,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>185</v>
@@ -8114,7 +8273,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>185</v>
@@ -8137,7 +8296,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>185</v>
@@ -8160,7 +8319,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>185</v>
@@ -8183,7 +8342,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>185</v>
@@ -8278,7 +8437,7 @@
         <v>271</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
@@ -8293,12 +8452,12 @@
         <v>53</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B20" s="8">
         <v>8898</v>
@@ -8343,7 +8502,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8351,7 +8510,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -8642,10 +8801,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C5" s="9">
         <v>5</v>
@@ -8661,7 +8820,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="8" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B6" s="8">
         <v>81706</v>
@@ -8675,15 +8834,15 @@
         <v>17</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C7" s="9">
         <v>3</v>
@@ -8694,15 +8853,15 @@
         <v>17</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C8" s="9">
         <v>8</v>
@@ -8718,7 +8877,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B9" s="8">
         <v>81718</v>
@@ -8732,7 +8891,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/Matuchet/Инвентаризация 2024/База оборудования 2024.xlsx
+++ b/Matuchet/Инвентаризация 2024/База оборудования 2024.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VM_space\Lab-processings\Matuchet\Инвентаризация 2024\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22185" windowHeight="9120"/>
   </bookViews>
   <sheets>
-    <sheet name="Оборудование" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Чепортузова" sheetId="3" r:id="rId3"/>
-    <sheet name="ЭФА" sheetId="4" r:id="rId4"/>
-    <sheet name="Лузганова" sheetId="5" r:id="rId5"/>
-    <sheet name="Пичугин" sheetId="6" r:id="rId6"/>
-    <sheet name="Полоскин" sheetId="7" r:id="rId7"/>
+    <sheet name="Оборудование по кабинетам" sheetId="8" r:id="rId1"/>
+    <sheet name="Оборудование" sheetId="1" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
+    <sheet name="Чепортузова" sheetId="3" r:id="rId4"/>
+    <sheet name="ЭФА" sheetId="4" r:id="rId5"/>
+    <sheet name="Лузганова" sheetId="5" r:id="rId6"/>
+    <sheet name="Пичугин" sheetId="6" r:id="rId7"/>
+    <sheet name="Полоскин" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Оборудование!$A$1:$L$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Оборудование!$A$1:$L$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Оборудование по кабинетам'!$A$1:$L$158</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="384">
   <si>
     <t>Счет</t>
   </si>
@@ -1226,20 +1233,19 @@
   </si>
   <si>
     <t>Полоскин 2; ХАйтов 1.  из закупок ЛОК 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="#\ ##0.0##"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#\ ##0.0##"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1264,159 +1270,8 @@
       <name val="Arial"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1429,194 +1284,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1687,253 +1356,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1949,7 +1376,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1962,20 +1389,20 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1985,62 +1412,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Запятая" xfId="1" builtinId="3"/>
-    <cellStyle name="Денежный" xfId="2" builtinId="4"/>
-    <cellStyle name="Процент" xfId="3" builtinId="5"/>
-    <cellStyle name="Запятая [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Денежный [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="8" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="9" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="10" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="11" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="16" builtinId="20"/>
-    <cellStyle name="Вывод" xfId="17" builtinId="21"/>
-    <cellStyle name="Вычисление" xfId="18" builtinId="22"/>
-    <cellStyle name="Проверить ячейку" xfId="19" builtinId="23"/>
-    <cellStyle name="Связанная ячейка" xfId="20" builtinId="24"/>
-    <cellStyle name="Итого" xfId="21" builtinId="25"/>
-    <cellStyle name="Хороший" xfId="22" builtinId="26"/>
-    <cellStyle name="Плохой" xfId="23" builtinId="27"/>
-    <cellStyle name="Нейтральный" xfId="24" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% — Акцент1" xfId="28" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% — Акцент2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% — Акцент2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% — Акцент2" xfId="32" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% — Акцент3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% — Акцент3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="36" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% — Акцент4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% — Акцент4" xfId="40" builtinId="44"/>
-    <cellStyle name="Акцент5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% — Акцент5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% — Акцент5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% — Акцент5" xfId="44" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% — Акцент6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2298,35 +1713,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5740740740741" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85185185185185" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.42592592592593" style="8" customWidth="1"/>
-    <col min="3" max="3" width="41.4259259259259" style="8" customWidth="1"/>
-    <col min="4" max="4" width="25.5740740740741" style="8"/>
-    <col min="5" max="5" width="25.5740740740741" style="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="19.8518518518519" style="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5740740740741" style="9" customWidth="1"/>
-    <col min="8" max="8" width="15.8518518518519" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.287037037037" style="8" customWidth="1"/>
-    <col min="10" max="10" width="11.287037037037" style="8" customWidth="1"/>
-    <col min="11" max="11" width="10.1388888888889" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="25.5740740740741" style="8"/>
+    <col min="1" max="1" width="7.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="38" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" style="8" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="25.5703125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2351,7 +1767,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="33" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -2364,7 +1780,5271 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="2" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="33">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="33">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="33">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="33">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="33">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="33">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="33">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="33">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="33">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="33">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="33">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="34">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="33">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8898</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="33">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="33">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="33">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="33">
+        <v>8</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="34">
+        <v>8</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="33">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="11">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="33">
+        <v>8</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="11">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="33">
+        <v>8</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="33">
+        <v>8</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="33">
+        <v>8</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="33">
+        <v>8</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="33">
+        <v>8</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="33">
+        <v>8</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="33">
+        <v>8</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="33">
+        <v>8</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="33">
+        <v>8</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="33">
+        <v>8</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="33">
+        <v>8</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="33">
+        <v>8</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="33">
+        <v>8</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="33">
+        <v>8</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="33">
+        <v>8</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="33">
+        <v>8</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="33">
+        <v>8</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="33">
+        <v>8</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="33">
+        <v>8</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="33">
+        <v>8</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="33">
+        <v>8</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="33">
+        <v>8</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="33">
+        <v>8</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="33">
+        <v>8</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="33">
+        <v>8</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="33">
+        <v>8</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L47" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="4">
+        <v>225</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="19"/>
+    </row>
+    <row r="49" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="4">
+        <v>225</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="4">
+        <v>225</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="4">
+        <v>225</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="4">
+        <v>225</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="4">
+        <v>225</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="4">
+        <v>225</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="4">
+        <v>225</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="4">
+        <v>225</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="4">
+        <v>1</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="4">
+        <v>225</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="4">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="4">
+        <v>225</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="4">
+        <v>225</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="4">
+        <v>225</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="4">
+        <v>225</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K62" s="4"/>
+      <c r="L62" s="19"/>
+    </row>
+    <row r="63" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="4">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="4">
+        <v>225</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K63" s="4"/>
+      <c r="L63" s="19"/>
+    </row>
+    <row r="64" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K64" s="4"/>
+      <c r="L64" s="19"/>
+    </row>
+    <row r="65" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="4">
+        <v>1</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="4">
+        <v>225</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K65" s="4"/>
+      <c r="L65" s="19"/>
+    </row>
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="33">
+        <v>8</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="1">
+        <v>8</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K67" s="1"/>
+      <c r="L67" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="33">
+        <v>8</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="22"/>
+      <c r="C69" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="33">
+        <v>8</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="33">
+        <v>8</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="22"/>
+      <c r="C71" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="33">
+        <v>8</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="22"/>
+      <c r="C72" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="33">
+        <v>8</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="22"/>
+      <c r="C73" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="33">
+        <v>8</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="1">
+        <v>8</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L74" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="22"/>
+      <c r="C75" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="33">
+        <v>8</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="22"/>
+      <c r="C76" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="33">
+        <v>8</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="22"/>
+      <c r="C77" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="33">
+        <v>8</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="22"/>
+      <c r="C78" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="33">
+        <v>8</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="33">
+        <v>8</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>21</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="11">
+        <v>1</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="33">
+        <v>8</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>21</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="11">
+        <v>4</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="33">
+        <v>8</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>21</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="11">
+        <v>3</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="33">
+        <v>8</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>21</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="21">
+        <v>1</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="34">
+        <v>8</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="4"/>
+      <c r="L83" s="19"/>
+    </row>
+    <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>21</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="11">
+        <v>4</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="33">
+        <v>8</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>21</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="11">
+        <v>2</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="33">
+        <v>8</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>21</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D86" s="1">
+        <v>81706</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1">
+        <v>2</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="33">
+        <v>8</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>21</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="33">
+        <v>8</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>21</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1">
+        <v>3</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="33">
+        <v>8</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>21</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D89" s="1">
+        <v>81681</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="33">
+        <v>8</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>21</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1">
+        <v>8</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="33">
+        <v>8</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>21</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="33">
+        <v>8</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>21</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D92" s="1">
+        <v>81718</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1">
+        <v>3</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="33">
+        <v>8</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>21</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E93" s="8">
+        <v>1</v>
+      </c>
+      <c r="F93" s="8">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1">
+        <v>5</v>
+      </c>
+      <c r="I93" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" s="32" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="4">
+        <v>1</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="34">
+        <v>19</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="4"/>
+      <c r="L94" s="19"/>
+    </row>
+    <row r="95" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" s="1">
+        <v>8</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L95" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="4">
+        <v>1</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="34">
+        <v>19</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="4"/>
+      <c r="L96" s="19"/>
+    </row>
+    <row r="97" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>21</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1">
+        <v>35</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="33">
+        <v>19</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="4">
+        <v>1</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="35">
+        <v>101</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="L98" s="19"/>
+    </row>
+    <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="4">
+        <v>1</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="34">
+        <v>104</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K99" s="4"/>
+      <c r="L99" s="19"/>
+    </row>
+    <row r="100" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" s="4">
+        <v>1</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="35">
+        <v>104</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K100" s="1"/>
+      <c r="L100" s="19"/>
+    </row>
+    <row r="101" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="4">
+        <v>1</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="35">
+        <v>104</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K101" s="4"/>
+      <c r="L101" s="19"/>
+    </row>
+    <row r="102" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" s="4">
+        <v>1</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="35">
+        <v>104</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K102" s="4"/>
+      <c r="L102" s="19"/>
+    </row>
+    <row r="103" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="4">
+        <v>1</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="35">
+        <v>104</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="1">
+        <v>8</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L104" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="4">
+        <v>1</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="35">
+        <v>106</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="4">
+        <v>1</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" s="35">
+        <v>106</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K106" s="4"/>
+    </row>
+    <row r="107" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="4">
+        <v>1</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" s="35">
+        <v>106</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K107" s="4"/>
+    </row>
+    <row r="108" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="4">
+        <v>1</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="34">
+        <v>112</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K108" s="4"/>
+    </row>
+    <row r="109" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>21</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="21">
+        <v>4</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" s="34">
+        <v>112</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K109" s="4"/>
+    </row>
+    <row r="110" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="4">
+        <v>1</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="34">
+        <v>112</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K110" s="4"/>
+    </row>
+    <row r="111" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>21</v>
+      </c>
+      <c r="B111" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" s="21">
+        <v>1</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" s="34">
+        <v>112</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K111" s="4"/>
+    </row>
+    <row r="112" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" s="4">
+        <v>1</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" s="34">
+        <v>112</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" s="4"/>
+    </row>
+    <row r="113" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="4">
+        <v>1</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" s="34">
+        <v>112</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" s="4">
+        <v>1</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" s="34">
+        <v>112</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114" s="4"/>
+    </row>
+    <row r="115" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="4">
+        <v>1</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" s="34">
+        <v>112</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K115" s="4"/>
+    </row>
+    <row r="116" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="4">
+        <v>1</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" s="34">
+        <v>112</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K116" s="4"/>
+    </row>
+    <row r="117" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" s="4">
+        <v>1</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" s="34">
+        <v>112</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K117" s="4"/>
+    </row>
+    <row r="118" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" s="4">
+        <v>1</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" s="34">
+        <v>112</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" s="4"/>
+    </row>
+    <row r="119" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" s="4">
+        <v>1</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" s="34">
+        <v>112</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K119" s="4"/>
+    </row>
+    <row r="120" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" s="4">
+        <v>1</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I120" s="34">
+        <v>112</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K120" s="4"/>
+    </row>
+    <row r="121" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="4">
+        <v>1</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" s="34">
+        <v>112</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K121" s="4"/>
+    </row>
+    <row r="122" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" s="4">
+        <v>1</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" s="34">
+        <v>112</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K122" s="4"/>
+    </row>
+    <row r="123" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" s="4">
+        <v>1</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="34">
+        <v>112</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K123" s="4"/>
+    </row>
+    <row r="124" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" s="4">
+        <v>1</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" s="34">
+        <v>112</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K124" s="4"/>
+    </row>
+    <row r="125" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" s="4">
+        <v>1</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I125" s="34">
+        <v>112</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K125" s="4"/>
+    </row>
+    <row r="126" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" s="4">
+        <v>1</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" s="34">
+        <v>112</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K126" s="4"/>
+    </row>
+    <row r="127" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" s="4">
+        <v>1</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" s="34">
+        <v>112</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K127" s="4"/>
+    </row>
+    <row r="128" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" s="4">
+        <v>1</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" s="34">
+        <v>112</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K128" s="4"/>
+    </row>
+    <row r="129" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" s="4">
+        <v>1</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" s="34">
+        <v>112</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K129" s="4"/>
+    </row>
+    <row r="130" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" s="4">
+        <v>1</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I130" s="34">
+        <v>112</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K130" s="4"/>
+    </row>
+    <row r="131" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" s="4">
+        <v>1</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" s="34">
+        <v>112</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K131" s="4"/>
+    </row>
+    <row r="132" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" s="4">
+        <v>1</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" s="34">
+        <v>112</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K132" s="4"/>
+    </row>
+    <row r="133" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" s="4">
+        <v>1</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I133" s="34">
+        <v>112</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K133" s="4"/>
+    </row>
+    <row r="134" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" s="4">
+        <v>1</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I134" s="34">
+        <v>112</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K134" s="4"/>
+    </row>
+    <row r="135" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" s="4">
+        <v>1</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I135" s="34">
+        <v>112</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K135" s="4"/>
+    </row>
+    <row r="136" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" s="4">
+        <v>1</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136" s="34">
+        <v>112</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K136" s="4"/>
+    </row>
+    <row r="137" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" s="4">
+        <v>1</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I137" s="34">
+        <v>112</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K137" s="4"/>
+    </row>
+    <row r="138" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" s="4">
+        <v>1</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I138" s="34">
+        <v>112</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K138" s="4"/>
+    </row>
+    <row r="139" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G139" s="4">
+        <v>1</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I139" s="34">
+        <v>112</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K139" s="4"/>
+    </row>
+    <row r="140" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" s="4">
+        <v>1</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I140" s="34">
+        <v>112</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K140" s="4"/>
+      <c r="L140" s="19"/>
+    </row>
+    <row r="141" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" s="4">
+        <v>1</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141" s="34">
+        <v>112</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K141" s="4"/>
+      <c r="L141" s="19"/>
+    </row>
+    <row r="142" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" s="4">
+        <v>1</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" s="34">
+        <v>112</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K142" s="4"/>
+      <c r="L142" s="19"/>
+    </row>
+    <row r="143" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" s="4">
+        <v>1</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" s="34">
+        <v>112</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K143" s="4"/>
+      <c r="L143" s="19"/>
+    </row>
+    <row r="144" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" s="4">
+        <v>1</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I144" s="34">
+        <v>112</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K144" s="4"/>
+    </row>
+    <row r="145" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>21</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" s="21">
+        <v>2</v>
+      </c>
+      <c r="H145" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I145" s="34">
+        <v>112</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K145" s="4"/>
+    </row>
+    <row r="146" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>21</v>
+      </c>
+      <c r="B146" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" s="21">
+        <v>5</v>
+      </c>
+      <c r="H146" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I146" s="34">
+        <v>112</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K146" s="4"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>21</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="F147" s="1">
+        <v>1</v>
+      </c>
+      <c r="G147" s="1">
+        <v>1</v>
+      </c>
+      <c r="H147" s="1"/>
+      <c r="I147" s="33">
+        <v>112</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A148" s="19">
+        <v>21</v>
+      </c>
+      <c r="B148" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="D148" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E148" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" s="30">
+        <v>6</v>
+      </c>
+      <c r="H148" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="J148" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K148" s="19"/>
+      <c r="L148" s="19"/>
+    </row>
+    <row r="149" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A149" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C149" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D149" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E149" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" s="19">
+        <v>1</v>
+      </c>
+      <c r="H149" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I149" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="J149" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K149" s="19"/>
+      <c r="L149" s="19"/>
+    </row>
+    <row r="150" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A150" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D150" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E150" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" s="19">
+        <v>1</v>
+      </c>
+      <c r="H150" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" s="36">
+        <v>114</v>
+      </c>
+      <c r="J150" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K150" s="19"/>
+      <c r="L150" s="19"/>
+    </row>
+    <row r="151" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A151" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="C151" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="D151" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="E151" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" s="19">
+        <v>1</v>
+      </c>
+      <c r="H151" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I151" s="36">
+        <v>114</v>
+      </c>
+      <c r="J151" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K151" s="19"/>
+      <c r="L151" s="19"/>
+    </row>
+    <row r="152" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A152" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="C152" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D152" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="E152" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" s="19">
+        <v>1</v>
+      </c>
+      <c r="H152" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I152" s="37">
+        <v>120</v>
+      </c>
+      <c r="J152" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="K152" s="19"/>
+      <c r="L152" s="19"/>
+    </row>
+    <row r="153" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A153" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="C153" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D153" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E153" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153" s="19">
+        <v>1</v>
+      </c>
+      <c r="H153" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" s="37">
+        <v>120</v>
+      </c>
+      <c r="J153" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="K153" s="19"/>
+      <c r="L153" s="19"/>
+    </row>
+    <row r="154" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A154" s="19">
+        <v>21</v>
+      </c>
+      <c r="B154" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D154" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E154" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" s="30">
+        <v>1</v>
+      </c>
+      <c r="H154" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="J154" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K154" s="19"/>
+      <c r="L154" s="19"/>
+    </row>
+    <row r="155" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A155" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D155" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="E155" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" s="19">
+        <v>1</v>
+      </c>
+      <c r="H155" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="J155" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="K155" s="19"/>
+      <c r="L155" s="19"/>
+    </row>
+    <row r="156" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A156" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C156" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D156" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="E156" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" s="19">
+        <v>1</v>
+      </c>
+      <c r="H156" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="J156" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="K156" s="19"/>
+      <c r="L156" s="19"/>
+    </row>
+    <row r="157" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A157" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D157" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="E157" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" s="19">
+        <v>1</v>
+      </c>
+      <c r="H157" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I157" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="J157" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="K157" s="19"/>
+      <c r="L157" s="19"/>
+    </row>
+    <row r="158" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A158" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D158" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="E158" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" s="19">
+        <v>1</v>
+      </c>
+      <c r="H158" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I158" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="J158" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="K158" s="19"/>
+      <c r="L158" s="19"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L158">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="ЛЭМБ"/>
+        <filter val="Ничье"/>
+        <filter val="Пичугин"/>
+        <filter val="Химики"/>
+        <filter val="Чепортузова"/>
+        <filter val="ЭФА"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:L158">
+    <sortCondition ref="I2:I158"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L158"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="8"/>
+    <col min="5" max="5" width="25.5703125" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="8" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="25.5703125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -2397,7 +7077,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="3" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>21</v>
       </c>
@@ -2430,7 +7110,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2464,7 +7144,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:12">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -2498,7 +7178,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="19"/>
     </row>
-    <row r="6" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="6" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>21</v>
       </c>
@@ -2531,7 +7211,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="7" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>21</v>
       </c>
@@ -2564,7 +7244,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:12">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -2598,7 +7278,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="9" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -2631,7 +7311,7 @@
       </c>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="10" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2665,7 +7345,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="11" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2699,7 +7379,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="12" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -2732,7 +7412,7 @@
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="13" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -2767,7 +7447,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="14" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -2800,7 +7480,7 @@
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="15" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2834,7 +7514,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="16" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -2867,7 +7547,7 @@
       </c>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="17" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -2900,7 +7580,7 @@
       </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="18" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -2933,7 +7613,7 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="19" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -2966,7 +7646,7 @@
       </c>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="20" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -2999,7 +7679,7 @@
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="21" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
@@ -3032,7 +7712,7 @@
       </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="22" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -3065,7 +7745,7 @@
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="23" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
@@ -3098,7 +7778,7 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="24" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>12</v>
       </c>
@@ -3131,7 +7811,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="25" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -3164,7 +7844,7 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="26" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -3197,7 +7877,7 @@
       </c>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="27" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
@@ -3230,7 +7910,7 @@
       </c>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="28" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -3263,7 +7943,7 @@
       </c>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="29" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
@@ -3296,7 +7976,7 @@
       </c>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="30" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>12</v>
       </c>
@@ -3329,7 +8009,7 @@
       </c>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="31" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>12</v>
       </c>
@@ -3362,7 +8042,7 @@
       </c>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="32" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -3395,7 +8075,7 @@
       </c>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="33" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
@@ -3428,7 +8108,7 @@
       </c>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="34" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
@@ -3461,7 +8141,7 @@
       </c>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="35" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
@@ -3494,7 +8174,7 @@
       </c>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="36" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
@@ -3527,7 +8207,7 @@
       </c>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="37" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
@@ -3560,7 +8240,7 @@
       </c>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="38" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
@@ -3593,7 +8273,7 @@
       </c>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="39" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -3626,7 +8306,7 @@
       </c>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="40" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
@@ -3659,7 +8339,7 @@
       </c>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="41" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
@@ -3692,7 +8372,7 @@
       </c>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="42" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
@@ -3725,7 +8405,7 @@
       </c>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="43" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
@@ -3758,7 +8438,7 @@
       </c>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="44" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
@@ -3791,7 +8471,7 @@
       </c>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="45" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>12</v>
       </c>
@@ -3824,7 +8504,7 @@
       </c>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="46" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>12</v>
       </c>
@@ -3857,7 +8537,7 @@
       </c>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="47" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>12</v>
       </c>
@@ -3890,7 +8570,7 @@
       </c>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" ht="15" hidden="1" customHeight="1" spans="1:12">
+    <row r="48" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>12</v>
       </c>
@@ -3922,7 +8602,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="19"/>
     </row>
-    <row r="49" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="49" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>12</v>
       </c>
@@ -3953,7 +8633,7 @@
       </c>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="50" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>12</v>
       </c>
@@ -3984,7 +8664,7 @@
       </c>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="51" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>12</v>
       </c>
@@ -4015,7 +8695,7 @@
       </c>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="52" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>12</v>
       </c>
@@ -4046,7 +8726,7 @@
       </c>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="53" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>12</v>
       </c>
@@ -4077,7 +8757,7 @@
       </c>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="54" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>12</v>
       </c>
@@ -4108,7 +8788,7 @@
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="55" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>12</v>
       </c>
@@ -4139,7 +8819,7 @@
       </c>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="56" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>12</v>
       </c>
@@ -4170,7 +8850,7 @@
       </c>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="57" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>12</v>
       </c>
@@ -4201,7 +8881,7 @@
       </c>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="58" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>12</v>
       </c>
@@ -4232,7 +8912,7 @@
       </c>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="59" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>12</v>
       </c>
@@ -4263,7 +8943,7 @@
       </c>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="60" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>12</v>
       </c>
@@ -4294,7 +8974,7 @@
       </c>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+    <row r="61" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>12</v>
       </c>
@@ -4325,7 +9005,7 @@
       </c>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" ht="15" hidden="1" customHeight="1" spans="1:12">
+    <row r="62" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>12</v>
       </c>
@@ -4357,7 +9037,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="19"/>
     </row>
-    <row r="63" ht="15" hidden="1" customHeight="1" spans="1:12">
+    <row r="63" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>12</v>
       </c>
@@ -4389,7 +9069,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="19"/>
     </row>
-    <row r="64" ht="15" hidden="1" customHeight="1" spans="1:12">
+    <row r="64" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>12</v>
       </c>
@@ -4421,7 +9101,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="19"/>
     </row>
-    <row r="65" ht="15" hidden="1" customHeight="1" spans="1:12">
+    <row r="65" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>12</v>
       </c>
@@ -4453,7 +9133,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="19"/>
     </row>
-    <row r="66" ht="15" customHeight="1" spans="1:12">
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="20"/>
       <c r="C66" s="2" t="s">
@@ -4483,7 +9163,7 @@
       </c>
       <c r="L66" s="19"/>
     </row>
-    <row r="67" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:12">
+    <row r="67" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>12</v>
       </c>
@@ -4515,7 +9195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1" spans="1:11">
+    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
@@ -4550,7 +9230,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1" spans="1:11">
+    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="22"/>
       <c r="C69" s="10" t="s">
@@ -4579,7 +9259,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1" spans="1:11">
+    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="22"/>
       <c r="C70" s="10" t="s">
@@ -4608,7 +9288,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1" spans="1:11">
+    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>12</v>
       </c>
@@ -4641,7 +9321,7 @@
       </c>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" ht="15" customHeight="1" spans="1:11">
+    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>12</v>
       </c>
@@ -4674,7 +9354,7 @@
       </c>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" ht="15" customHeight="1" spans="1:11">
+    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>12</v>
       </c>
@@ -4707,7 +9387,7 @@
       </c>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" ht="15" hidden="1" customHeight="1" spans="1:12">
+    <row r="74" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>12</v>
       </c>
@@ -4741,7 +9421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1" spans="1:11">
+    <row r="75" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>21</v>
       </c>
@@ -4774,7 +9454,7 @@
       </c>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" ht="15" customHeight="1" spans="1:11">
+    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>21</v>
       </c>
@@ -4807,7 +9487,7 @@
       </c>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" ht="15" customHeight="1" spans="1:11">
+    <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>12</v>
       </c>
@@ -4840,7 +9520,7 @@
       </c>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" ht="15" customHeight="1" spans="1:11">
+    <row r="78" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>12</v>
       </c>
@@ -4875,7 +9555,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="79" ht="15" customHeight="1" spans="1:11">
+    <row r="79" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>12</v>
       </c>
@@ -4908,7 +9588,7 @@
       </c>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" ht="15" customHeight="1" spans="1:11">
+    <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>12</v>
       </c>
@@ -4943,7 +9623,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="81" ht="15" customHeight="1" spans="1:11">
+    <row r="81" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>12</v>
       </c>
@@ -4976,7 +9656,7 @@
       </c>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" ht="15" customHeight="1" spans="1:11">
+    <row r="82" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>12</v>
       </c>
@@ -5009,7 +9689,7 @@
       </c>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" ht="15" customHeight="1" spans="1:11">
+    <row r="83" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>12</v>
       </c>
@@ -5044,7 +9724,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1" spans="1:11">
+    <row r="84" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>12</v>
       </c>
@@ -5079,7 +9759,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1" spans="1:11">
+    <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>12</v>
       </c>
@@ -5114,7 +9794,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="86" ht="15" customHeight="1" spans="1:11">
+    <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>12</v>
       </c>
@@ -5149,7 +9829,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="87" ht="15" customHeight="1" spans="1:11">
+    <row r="87" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
@@ -5184,7 +9864,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="88" ht="15" customHeight="1" spans="1:11">
+    <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -5219,7 +9899,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="89" ht="15" customHeight="1" spans="1:11">
+    <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>12</v>
       </c>
@@ -5252,7 +9932,7 @@
       </c>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" ht="15" customHeight="1" spans="1:11">
+    <row r="90" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>12</v>
       </c>
@@ -5285,7 +9965,7 @@
       </c>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" ht="15" customHeight="1" spans="1:11">
+    <row r="91" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>12</v>
       </c>
@@ -5318,7 +9998,7 @@
       </c>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" ht="15" customHeight="1" spans="1:11">
+    <row r="92" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>12</v>
       </c>
@@ -5351,7 +10031,7 @@
       </c>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" ht="15" customHeight="1" spans="1:11">
+    <row r="93" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>12</v>
       </c>
@@ -5384,7 +10064,7 @@
       </c>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" ht="15" hidden="1" customHeight="1" spans="1:12">
+    <row r="94" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>12</v>
       </c>
@@ -5418,7 +10098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" ht="15" customHeight="1" spans="1:11">
+    <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>12</v>
       </c>
@@ -5451,7 +10131,7 @@
       </c>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" ht="15" customHeight="1" spans="1:11">
+    <row r="96" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>12</v>
       </c>
@@ -5484,7 +10164,7 @@
       </c>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" ht="15" customHeight="1" spans="1:11">
+    <row r="97" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>12</v>
       </c>
@@ -5517,7 +10197,7 @@
       </c>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" ht="15" customHeight="1" spans="1:11">
+    <row r="98" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>12</v>
       </c>
@@ -5550,7 +10230,7 @@
       </c>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" ht="15" customHeight="1" spans="1:11">
+    <row r="99" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>12</v>
       </c>
@@ -5583,7 +10263,7 @@
       </c>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" ht="15" customHeight="1" spans="1:11">
+    <row r="100" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>12</v>
       </c>
@@ -5616,7 +10296,7 @@
       </c>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" ht="15" customHeight="1" spans="1:11">
+    <row r="101" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>12</v>
       </c>
@@ -5649,7 +10329,7 @@
       </c>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="102" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>12</v>
       </c>
@@ -5687,7 +10367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:12">
+    <row r="103" spans="1:12" s="19" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>12</v>
       </c>
@@ -5721,7 +10401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="104" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>12</v>
       </c>
@@ -5757,7 +10437,7 @@
       </c>
       <c r="L104" s="8"/>
     </row>
-    <row r="105" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="105" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>12</v>
       </c>
@@ -5789,7 +10469,7 @@
       </c>
       <c r="L105" s="8"/>
     </row>
-    <row r="106" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="106" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>12</v>
       </c>
@@ -5821,7 +10501,7 @@
       </c>
       <c r="L106" s="8"/>
     </row>
-    <row r="107" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="107" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>12</v>
       </c>
@@ -5853,7 +10533,7 @@
       </c>
       <c r="L107" s="8"/>
     </row>
-    <row r="108" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="108" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>12</v>
       </c>
@@ -5885,7 +10565,7 @@
       </c>
       <c r="L108" s="8"/>
     </row>
-    <row r="109" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="109" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>12</v>
       </c>
@@ -5917,7 +10597,7 @@
       </c>
       <c r="L109" s="8"/>
     </row>
-    <row r="110" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="110" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>12</v>
       </c>
@@ -5949,7 +10629,7 @@
       </c>
       <c r="L110" s="8"/>
     </row>
-    <row r="111" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="111" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>12</v>
       </c>
@@ -5981,7 +10661,7 @@
       </c>
       <c r="L111" s="8"/>
     </row>
-    <row r="112" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="112" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>12</v>
       </c>
@@ -6013,7 +10693,7 @@
       </c>
       <c r="L112" s="8"/>
     </row>
-    <row r="113" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="113" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>12</v>
       </c>
@@ -6045,7 +10725,7 @@
       </c>
       <c r="L113" s="8"/>
     </row>
-    <row r="114" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="114" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>12</v>
       </c>
@@ -6077,7 +10757,7 @@
       </c>
       <c r="L114" s="8"/>
     </row>
-    <row r="115" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="115" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>12</v>
       </c>
@@ -6109,7 +10789,7 @@
       </c>
       <c r="L115" s="8"/>
     </row>
-    <row r="116" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="116" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>12</v>
       </c>
@@ -6141,7 +10821,7 @@
       </c>
       <c r="L116" s="8"/>
     </row>
-    <row r="117" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="117" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>12</v>
       </c>
@@ -6173,7 +10853,7 @@
       </c>
       <c r="L117" s="8"/>
     </row>
-    <row r="118" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="118" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>12</v>
       </c>
@@ -6205,7 +10885,7 @@
       </c>
       <c r="L118" s="8"/>
     </row>
-    <row r="119" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="119" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>12</v>
       </c>
@@ -6237,7 +10917,7 @@
       </c>
       <c r="L119" s="8"/>
     </row>
-    <row r="120" s="19" customFormat="1" ht="15" customHeight="1" spans="1:12">
+    <row r="120" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>12</v>
       </c>
@@ -6269,7 +10949,7 @@
       </c>
       <c r="L120" s="8"/>
     </row>
-    <row r="121" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="121" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>12</v>
       </c>
@@ -6302,7 +10982,7 @@
       </c>
       <c r="K121" s="4"/>
     </row>
-    <row r="122" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="122" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>12</v>
       </c>
@@ -6333,7 +11013,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="123" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="123" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>12</v>
       </c>
@@ -6366,7 +11046,7 @@
       </c>
       <c r="K123" s="4"/>
     </row>
-    <row r="124" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="124" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>12</v>
       </c>
@@ -6399,7 +11079,7 @@
       </c>
       <c r="K124" s="1"/>
     </row>
-    <row r="125" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="125" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>12</v>
       </c>
@@ -6432,7 +11112,7 @@
       </c>
       <c r="K125" s="4"/>
     </row>
-    <row r="126" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="126" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>12</v>
       </c>
@@ -6465,7 +11145,7 @@
       </c>
       <c r="K126" s="4"/>
     </row>
-    <row r="127" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="127" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>12</v>
       </c>
@@ -6498,7 +11178,7 @@
       </c>
       <c r="K127" s="4"/>
     </row>
-    <row r="128" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="128" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>12</v>
       </c>
@@ -6531,7 +11211,7 @@
       </c>
       <c r="K128" s="4"/>
     </row>
-    <row r="129" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="129" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>12</v>
       </c>
@@ -6564,7 +11244,7 @@
       </c>
       <c r="K129" s="4"/>
     </row>
-    <row r="130" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="130" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>12</v>
       </c>
@@ -6597,7 +11277,7 @@
       </c>
       <c r="K130" s="4"/>
     </row>
-    <row r="131" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="131" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>12</v>
       </c>
@@ -6630,7 +11310,7 @@
       </c>
       <c r="K131" s="4"/>
     </row>
-    <row r="132" s="19" customFormat="1" ht="15" customHeight="1" spans="1:11">
+    <row r="132" spans="1:12" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>12</v>
       </c>
@@ -6665,7 +11345,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="133" s="19" customFormat="1" ht="14.4" spans="1:11">
+    <row r="133" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>12</v>
       </c>
@@ -6698,7 +11378,7 @@
       </c>
       <c r="K133" s="4"/>
     </row>
-    <row r="134" s="19" customFormat="1" ht="14.4" spans="1:11">
+    <row r="134" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>12</v>
       </c>
@@ -6731,7 +11411,7 @@
       </c>
       <c r="K134" s="4"/>
     </row>
-    <row r="135" s="19" customFormat="1" ht="14.4" spans="1:11">
+    <row r="135" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>12</v>
       </c>
@@ -6764,7 +11444,7 @@
       </c>
       <c r="K135" s="4"/>
     </row>
-    <row r="136" s="19" customFormat="1" ht="14.4" spans="1:12">
+    <row r="136" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>12</v>
       </c>
@@ -6800,7 +11480,7 @@
       </c>
       <c r="L136" s="8"/>
     </row>
-    <row r="137" s="19" customFormat="1" ht="14.4" spans="1:11">
+    <row r="137" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>12</v>
       </c>
@@ -6833,7 +11513,7 @@
       </c>
       <c r="K137" s="4"/>
     </row>
-    <row r="138" s="19" customFormat="1" ht="14.4" spans="1:12">
+    <row r="138" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>21</v>
       </c>
@@ -6867,7 +11547,7 @@
       <c r="K138" s="1"/>
       <c r="L138" s="8"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>21</v>
       </c>
@@ -6902,7 +11582,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>21</v>
       </c>
@@ -6935,7 +11615,7 @@
       </c>
       <c r="K140" s="1"/>
     </row>
-    <row r="141" ht="14.4" spans="1:12">
+    <row r="141" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>21</v>
       </c>
@@ -6969,7 +11649,7 @@
       <c r="K141" s="4"/>
       <c r="L141" s="19"/>
     </row>
-    <row r="142" ht="14.4" spans="1:12">
+    <row r="142" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>21</v>
       </c>
@@ -7003,7 +11683,7 @@
       <c r="K142" s="4"/>
       <c r="L142" s="19"/>
     </row>
-    <row r="143" s="19" customFormat="1" ht="14.4" spans="1:11">
+    <row r="143" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>21</v>
       </c>
@@ -7036,7 +11716,7 @@
       </c>
       <c r="K143" s="4"/>
     </row>
-    <row r="144" s="19" customFormat="1" ht="14.4" spans="1:12">
+    <row r="144" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>21</v>
       </c>
@@ -7070,7 +11750,7 @@
       <c r="K144" s="1"/>
       <c r="L144" s="8"/>
     </row>
-    <row r="145" s="19" customFormat="1" ht="14.4" spans="1:12">
+    <row r="145" spans="1:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>21</v>
       </c>
@@ -7104,7 +11784,7 @@
       <c r="K145" s="1"/>
       <c r="L145" s="8"/>
     </row>
-    <row r="146" ht="14.4" spans="1:12">
+    <row r="146" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>21</v>
       </c>
@@ -7138,7 +11818,7 @@
       <c r="K146" s="4"/>
       <c r="L146" s="19"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
         <v>21</v>
       </c>
@@ -7167,7 +11847,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <v>21</v>
       </c>
@@ -7196,7 +11876,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <v>21</v>
       </c>
@@ -7225,7 +11905,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>21</v>
       </c>
@@ -7254,7 +11934,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <v>21</v>
       </c>
@@ -7283,7 +11963,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>21</v>
       </c>
@@ -7312,7 +11992,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="8">
         <v>21</v>
       </c>
@@ -7341,7 +12021,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="8">
         <v>21</v>
       </c>
@@ -7370,7 +12050,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="8">
         <v>21</v>
       </c>
@@ -7399,7 +12079,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="8">
         <v>21</v>
       </c>
@@ -7428,7 +12108,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="8">
         <v>21</v>
       </c>
@@ -7454,7 +12134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>21</v>
       </c>
@@ -7484,45 +12164,42 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:L158" etc:filterBottomFollowUsedRange="0">
+  <autoFilter ref="A1:L158">
     <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-      </customFilters>
+      <filters>
+        <filter val="1"/>
+      </filters>
     </filterColumn>
     <filterColumn colId="9">
       <filters>
-        <filter val="ЭФА"/>
-        <filter val="Чепортузова"/>
         <filter val="ЛЭМБ"/>
         <filter val="Ничье"/>
+        <filter val="Пичугин"/>
         <filter val="Химики"/>
-        <filter val="Пичугин"/>
+        <filter val="Чепортузова"/>
+        <filter val="ЭФА"/>
       </filters>
     </filterColumn>
-    <extLst/>
   </autoFilter>
   <sortState ref="A3:L146">
     <sortCondition ref="B3:B146"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" ht="15" customHeight="1" spans="1:13">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
@@ -7547,7 +12224,7 @@
       <c r="L2" s="17"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:13">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -7572,7 +12249,7 @@
       <c r="L3" s="17"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
@@ -7597,7 +12274,7 @@
       <c r="L4" s="17"/>
       <c r="M4" s="18"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:13">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>31</v>
       </c>
@@ -7622,7 +12299,7 @@
       <c r="L5" s="17"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:13">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
@@ -7647,7 +12324,7 @@
       <c r="L6" s="17"/>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:13">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>38</v>
       </c>
@@ -7672,7 +12349,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:13">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>41</v>
       </c>
@@ -7697,7 +12374,7 @@
       <c r="L8" s="17"/>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>44</v>
       </c>
@@ -7722,7 +12399,7 @@
       <c r="L9" s="17"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:13">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>47</v>
       </c>
@@ -7747,7 +12424,7 @@
       <c r="L10" s="17"/>
       <c r="M10" s="18"/>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:13">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>51</v>
       </c>
@@ -7772,7 +12449,7 @@
       <c r="L11" s="17"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>54</v>
       </c>
@@ -7797,7 +12474,7 @@
       <c r="L12" s="17"/>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:13">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>57</v>
       </c>
@@ -7822,7 +12499,7 @@
       <c r="L13" s="17"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>60</v>
       </c>
@@ -7847,7 +12524,7 @@
       <c r="L14" s="17"/>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:13">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>63</v>
       </c>
@@ -7874,26 +12551,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="17.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7916,7 +12591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>299</v>
       </c>
@@ -7939,7 +12614,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>299</v>
       </c>
@@ -7962,7 +12637,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>299</v>
       </c>
@@ -7985,7 +12660,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>320</v>
       </c>
@@ -8010,31 +12685,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="16.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="14.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="14.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="14.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="24.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8057,7 +12730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -8078,7 +12751,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>183</v>
       </c>
@@ -8101,7 +12774,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>183</v>
       </c>
@@ -8124,7 +12797,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>188</v>
       </c>
@@ -8145,7 +12818,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>188</v>
       </c>
@@ -8166,7 +12839,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>193</v>
       </c>
@@ -8187,7 +12860,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>271</v>
       </c>
@@ -8210,7 +12883,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>271</v>
       </c>
@@ -8233,7 +12906,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>271</v>
       </c>
@@ -8256,7 +12929,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>271</v>
       </c>
@@ -8279,7 +12952,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>271</v>
       </c>
@@ -8302,7 +12975,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>271</v>
       </c>
@@ -8325,7 +12998,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>296</v>
       </c>
@@ -8348,7 +13021,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>299</v>
       </c>
@@ -8369,7 +13042,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>299</v>
       </c>
@@ -8390,7 +13063,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>299</v>
       </c>
@@ -8411,7 +13084,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>299</v>
       </c>
@@ -8432,7 +13105,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>271</v>
       </c>
@@ -8455,7 +13128,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>370</v>
       </c>
@@ -8480,27 +13153,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>380</v>
       </c>
@@ -8508,7 +13179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>381</v>
       </c>
@@ -8518,30 +13189,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.8888888888889" customWidth="1"/>
-    <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="16.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="13.2222222222222" customWidth="1"/>
-    <col min="6" max="6" width="56.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8561,7 +13230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>201</v>
       </c>
@@ -8579,7 +13248,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>251</v>
       </c>
@@ -8597,7 +13266,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>251</v>
       </c>
@@ -8615,7 +13284,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>271</v>
       </c>
@@ -8635,7 +13304,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>271</v>
       </c>
@@ -8655,7 +13324,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>271</v>
       </c>
@@ -8675,7 +13344,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>271</v>
       </c>
@@ -8697,27 +13366,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="19.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="13.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="69.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8740,7 +13407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
@@ -8761,7 +13428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>173</v>
       </c>
@@ -8780,7 +13447,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>288</v>
       </c>
@@ -8799,7 +13466,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>355</v>
       </c>
@@ -8818,7 +13485,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>363</v>
       </c>
@@ -8837,7 +13504,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>371</v>
       </c>
@@ -8856,7 +13523,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>376</v>
       </c>
@@ -8875,7 +13542,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>351</v>
       </c>
@@ -8896,6 +13563,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>